--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220524_110100.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220524_110100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="264">
   <si>
     <t>사이트</t>
   </si>
@@ -718,7 +718,7 @@
     <t>YG</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>MH</t>
@@ -767,9 +767,6 @@
   </si>
   <si>
     <t>EDAM</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>에버그로우</t>
@@ -1247,7 +1244,7 @@
         <v>225</v>
       </c>
       <c r="H3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1299,7 +1296,7 @@
         <v>227</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1325,7 +1322,7 @@
         <v>228</v>
       </c>
       <c r="H6" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1351,7 +1348,7 @@
         <v>229</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1403,7 +1400,7 @@
         <v>230</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1455,7 +1452,7 @@
         <v>231</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1507,7 +1504,7 @@
         <v>232</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1585,7 +1582,7 @@
         <v>232</v>
       </c>
       <c r="H16" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1611,7 +1608,7 @@
         <v>234</v>
       </c>
       <c r="H17" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1637,7 +1634,7 @@
         <v>235</v>
       </c>
       <c r="H18" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1715,7 +1712,7 @@
         <v>238</v>
       </c>
       <c r="H21" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1767,7 +1764,7 @@
         <v>230</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1793,7 +1790,7 @@
         <v>239</v>
       </c>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1819,7 +1816,7 @@
         <v>240</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1845,7 +1842,7 @@
         <v>234</v>
       </c>
       <c r="H26" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1871,7 +1868,7 @@
         <v>241</v>
       </c>
       <c r="H27" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1897,7 +1894,7 @@
         <v>242</v>
       </c>
       <c r="H28" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1923,7 +1920,7 @@
         <v>243</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1949,7 +1946,7 @@
         <v>227</v>
       </c>
       <c r="H30" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1975,7 +1972,7 @@
         <v>244</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2001,7 +1998,7 @@
         <v>245</v>
       </c>
       <c r="H32" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2053,7 +2050,7 @@
         <v>245</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2079,7 +2076,7 @@
         <v>246</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2105,7 +2102,7 @@
         <v>227</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2131,7 +2128,7 @@
         <v>243</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2157,7 +2154,7 @@
         <v>227</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2183,7 +2180,7 @@
         <v>230</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2209,7 +2206,7 @@
         <v>247</v>
       </c>
       <c r="H40" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2235,7 +2232,7 @@
         <v>227</v>
       </c>
       <c r="H41" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2261,7 +2258,7 @@
         <v>243</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2287,7 +2284,7 @@
         <v>227</v>
       </c>
       <c r="H43" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2313,7 +2310,7 @@
         <v>245</v>
       </c>
       <c r="H44" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2365,7 +2362,7 @@
         <v>248</v>
       </c>
       <c r="H46" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2391,7 +2388,7 @@
         <v>230</v>
       </c>
       <c r="H47" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2417,7 +2414,7 @@
         <v>249</v>
       </c>
       <c r="H48" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2443,7 +2440,7 @@
         <v>245</v>
       </c>
       <c r="H49" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2469,7 +2466,7 @@
         <v>234</v>
       </c>
       <c r="H50" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2521,7 +2518,7 @@
         <v>250</v>
       </c>
       <c r="H52" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2547,7 +2544,7 @@
         <v>243</v>
       </c>
       <c r="H53" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2573,7 +2570,7 @@
         <v>232</v>
       </c>
       <c r="H54" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2599,7 +2596,7 @@
         <v>232</v>
       </c>
       <c r="H55" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2622,10 +2619,10 @@
         <v>200</v>
       </c>
       <c r="G56" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H56" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2651,7 +2648,7 @@
         <v>250</v>
       </c>
       <c r="H57" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2674,10 +2671,10 @@
         <v>201</v>
       </c>
       <c r="G58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H58" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2703,7 +2700,7 @@
         <v>249</v>
       </c>
       <c r="H59" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2729,7 +2726,7 @@
         <v>246</v>
       </c>
       <c r="H60" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2755,7 +2752,7 @@
         <v>238</v>
       </c>
       <c r="H61" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2778,10 +2775,10 @@
         <v>203</v>
       </c>
       <c r="G62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H62" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2830,10 +2827,10 @@
         <v>197</v>
       </c>
       <c r="G64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H64" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2856,10 +2853,10 @@
         <v>204</v>
       </c>
       <c r="G65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2882,10 +2879,10 @@
         <v>205</v>
       </c>
       <c r="G66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2911,7 +2908,7 @@
         <v>250</v>
       </c>
       <c r="H67" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2963,7 +2960,7 @@
         <v>238</v>
       </c>
       <c r="H69" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2986,10 +2983,10 @@
         <v>208</v>
       </c>
       <c r="G70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H70" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3012,10 +3009,10 @@
         <v>79</v>
       </c>
       <c r="G71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3038,10 +3035,10 @@
         <v>209</v>
       </c>
       <c r="G72" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H72" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3067,7 +3064,7 @@
         <v>234</v>
       </c>
       <c r="H73" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3093,7 +3090,7 @@
         <v>238</v>
       </c>
       <c r="H74" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3116,10 +3113,10 @@
         <v>211</v>
       </c>
       <c r="G75" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H75" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3142,10 +3139,10 @@
         <v>212</v>
       </c>
       <c r="G76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H76" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3171,7 +3168,7 @@
         <v>238</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3194,10 +3191,10 @@
         <v>85</v>
       </c>
       <c r="G78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H78" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3220,10 +3217,10 @@
         <v>213</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H79" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3249,7 +3246,7 @@
         <v>245</v>
       </c>
       <c r="H80" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3275,7 +3272,7 @@
         <v>245</v>
       </c>
       <c r="H81" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3301,7 +3298,7 @@
         <v>225</v>
       </c>
       <c r="H82" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3327,7 +3324,7 @@
         <v>245</v>
       </c>
       <c r="H83" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3350,10 +3347,10 @@
         <v>215</v>
       </c>
       <c r="G84" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H84" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3379,7 +3376,7 @@
         <v>227</v>
       </c>
       <c r="H85" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3428,10 +3425,10 @@
         <v>217</v>
       </c>
       <c r="G87" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H87" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3457,7 +3454,7 @@
         <v>234</v>
       </c>
       <c r="H88" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3483,7 +3480,7 @@
         <v>249</v>
       </c>
       <c r="H89" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3506,10 +3503,10 @@
         <v>220</v>
       </c>
       <c r="G90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3532,10 +3529,10 @@
         <v>98</v>
       </c>
       <c r="G91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3610,10 +3607,10 @@
         <v>101</v>
       </c>
       <c r="G94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H94" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3639,7 +3636,7 @@
         <v>245</v>
       </c>
       <c r="H95" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3662,10 +3659,10 @@
         <v>200</v>
       </c>
       <c r="G96" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H96" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3691,7 +3688,7 @@
         <v>234</v>
       </c>
       <c r="H97" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3717,7 +3714,7 @@
         <v>238</v>
       </c>
       <c r="H98" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3740,10 +3737,10 @@
         <v>200</v>
       </c>
       <c r="G99" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H99" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3769,7 +3766,7 @@
         <v>245</v>
       </c>
       <c r="H100" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3792,10 +3789,10 @@
         <v>200</v>
       </c>
       <c r="G101" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H101" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
